--- a/Testing/UserTestScript.xlsx
+++ b/Testing/UserTestScript.xlsx
@@ -13,8 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
-    <sheet name="Instruction" sheetId="3" r:id="rId2"/>
-    <sheet name="Users Info" sheetId="2" r:id="rId3"/>
+    <sheet name="User 1" sheetId="3" r:id="rId2"/>
+    <sheet name="User 2" sheetId="4" r:id="rId3"/>
+    <sheet name="User 3" sheetId="5" r:id="rId4"/>
+    <sheet name="User 4" sheetId="7" r:id="rId5"/>
+    <sheet name="User 5" sheetId="6" r:id="rId6"/>
+    <sheet name="Users Info" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="57">
   <si>
     <t>Usability Testing</t>
   </si>
@@ -97,22 +101,107 @@
     <t>5. First find Glycerolipids then select Ion: [M+Ag]+ sn1: 12:0 sn2: 14:0 sn3: 16:0. Do you receive molor mass of 829.5470?</t>
   </si>
   <si>
-    <t>6. First find Glycerophospholipids then select Ion: [M+ALi]+ sn1: 12:0Head Group: PS sn1: 14:0 sn2: 12:0. Do you receive molor mass of 658.4266?</t>
-  </si>
-  <si>
     <t>5. First find Cardiolipins then select Ion: [M+2K-H]+ sn1(1): 10:0 sn1(2): 12:0 sn2(1): 15:0 sn2(2): 16:0. Do you receive molor mass of 1275.7191?</t>
   </si>
   <si>
     <t>8. First find Shingolipids then select Ion: [M+Li]+ Head Group: Lactosyl  Sphingoid Base: t18:1 N-acyl: 12:0. Do you receive molor mass of 828.5655?</t>
   </si>
   <si>
-    <t>Jessica Sok</t>
-  </si>
-  <si>
-    <t>Jose Moreno</t>
-  </si>
-  <si>
-    <t>Joseph Tsegaye</t>
+    <t>Adanna Okoro</t>
+  </si>
+  <si>
+    <t>Kinda</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Tracy Thompson</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>May Kamreen</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>6. First find Glycerophospholipids then select Ion: [M+Li]+ Head Group: PS sn1: 14:0 sn2: 12:0. Do you receive molor mass of 658.4266?</t>
+  </si>
+  <si>
+    <t>Za Eng Mawi</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>Very little</t>
+  </si>
+  <si>
+    <t>Josue Mayorga</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>Anh Nguyen</t>
+  </si>
+  <si>
+    <t>Hong Nguyen</t>
+  </si>
+  <si>
+    <t>Uyen Chu</t>
+  </si>
+  <si>
+    <t>Adegbola Sophiat</t>
+  </si>
+  <si>
+    <t>Allen Ray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josue Mayorga
+</t>
+  </si>
+  <si>
+    <t>7. First find Cardiolipins then select Ion: [M+2K-H]+ sn1(1): 10:0 sn1(2): 12:0 sn2(1): 15:0 sn2(2): 16:0. Do you receive molor mass of 1275.7191?</t>
+  </si>
+  <si>
+    <t>Sagar Hansalia</t>
+  </si>
+  <si>
+    <t>User 6</t>
+  </si>
+  <si>
+    <t>User 7</t>
+  </si>
+  <si>
+    <t>User 8</t>
+  </si>
+  <si>
+    <t>User 9</t>
+  </si>
+  <si>
+    <t>User 10</t>
+  </si>
+  <si>
+    <t>User 11</t>
+  </si>
+  <si>
+    <t>User 12</t>
+  </si>
+  <si>
+    <t>User 13</t>
+  </si>
+  <si>
+    <t>User 14</t>
+  </si>
+  <si>
+    <t>User 15</t>
   </si>
 </sst>
 </file>
@@ -168,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -200,11 +289,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -214,11 +316,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -245,7 +366,35 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{398814EB-0FC0-4665-9E1D-895ABFD3F2E5}" name="Table1567" displayName="Table1567" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10" xr:uid="{42B6FD23-E0EB-4548-AFE5-0648EFE0187D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B1E95A04-117B-4E00-8F1A-3FA96D3762E2}" name="Procedure:"/>
+    <tableColumn id="2" xr3:uid="{8DFF8EE2-B9DE-453D-912C-AD45172CFB8E}" name="Pass/Fail"/>
+    <tableColumn id="3" xr3:uid="{02CA7379-7847-4DE6-BEB9-4F0FBB17909A}" name="Why?"/>
+    <tableColumn id="4" xr3:uid="{E0B175CA-DA77-4003-8733-0439155A20DF}" name="Date" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{C2A83DD0-871A-4E72-B6EA-840E61F5C9B7}" name="Tester Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{63432286-171D-4A50-B81B-BE4F57C59DDB}" name="Table1910111213" displayName="Table1910111213" ref="A16:E25" totalsRowShown="0">
+  <autoFilter ref="A16:E25" xr:uid="{543B8310-1AED-4EF8-AE36-4A6E3393D088}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A5F373BC-2D41-41E5-8776-3D8061C8B980}" name="Procedure:"/>
+    <tableColumn id="2" xr3:uid="{E7635FDC-71FF-411F-9E50-38352E2BF385}" name="Pass/Fail"/>
+    <tableColumn id="3" xr3:uid="{AAB9E2EE-3A48-495C-A4DF-77B863BD856D}" name="Why?"/>
+    <tableColumn id="4" xr3:uid="{FF6DDA21-76DF-4B2F-866F-14FADFBDA0BB}" name="Date"/>
+    <tableColumn id="5" xr3:uid="{A2D9A247-E632-4A5B-996C-A2093037D137}" name="Tester Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{301693AC-A22C-45F8-905B-8F16411260D3}" name="Table2" displayName="Table2" ref="A3:F8" totalsRowShown="0">
   <autoFilter ref="A3:F8" xr:uid="{B76D89A0-79F2-4111-806E-36E663844056}"/>
   <tableColumns count="6">
@@ -260,16 +409,128 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50E11BE0-9F80-4D40-9B6E-88D77C3372AE}" name="Table24" displayName="Table24" ref="A25:F30" totalsRowShown="0">
   <autoFilter ref="A25:F30" xr:uid="{018DDEA9-FCEA-4468-9557-6CCFDDE147C2}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5175AB22-3801-4807-8B34-F98AF498A2C0}" name="Info"/>
-    <tableColumn id="2" xr3:uid="{574FA0DA-3BEF-471C-8746-36EB29F47D30}" name="User 1"/>
-    <tableColumn id="3" xr3:uid="{CD59DB85-28A3-4C30-9502-FB2B7BF06EA6}" name="User 2"/>
-    <tableColumn id="4" xr3:uid="{DE1AF279-8813-4A15-B9D0-2FBA2B32ADEB}" name="User 3"/>
-    <tableColumn id="5" xr3:uid="{2823B1F2-4BF2-45F0-A909-51411C2ABB24}" name="User 4"/>
-    <tableColumn id="6" xr3:uid="{B9E4CB7C-9C15-4B31-A254-26BE8CCAE2C6}" name="User 5"/>
+    <tableColumn id="2" xr3:uid="{574FA0DA-3BEF-471C-8746-36EB29F47D30}" name="User 11"/>
+    <tableColumn id="3" xr3:uid="{CD59DB85-28A3-4C30-9502-FB2B7BF06EA6}" name="User 12"/>
+    <tableColumn id="4" xr3:uid="{DE1AF279-8813-4A15-B9D0-2FBA2B32ADEB}" name="User 13"/>
+    <tableColumn id="5" xr3:uid="{2823B1F2-4BF2-45F0-A909-51411C2ABB24}" name="User 14"/>
+    <tableColumn id="6" xr3:uid="{B9E4CB7C-9C15-4B31-A254-26BE8CCAE2C6}" name="User 15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3AE0034B-1A04-4574-839C-1753F83DEA9B}" name="Table19" displayName="Table19" ref="A16:E25" totalsRowShown="0">
+  <autoFilter ref="A16:E25" xr:uid="{3435F1F7-381E-4F92-9746-060B4F21256F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{231DAF71-EDCB-435F-BD4B-25F456B57319}" name="Procedure:"/>
+    <tableColumn id="2" xr3:uid="{4F47FC55-6828-40A6-9E40-B74C354C5FA5}" name="Pass/Fail"/>
+    <tableColumn id="3" xr3:uid="{8568A988-1299-4B2B-8D16-F966C131B020}" name="Why?"/>
+    <tableColumn id="4" xr3:uid="{3A908403-8289-43AD-94D7-A6A2F74D9661}" name="Date"/>
+    <tableColumn id="5" xr3:uid="{9E586BC0-0805-4A12-A21C-D57E2D571A3B}" name="Tester Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{BD5A9745-81E3-4178-A0D2-F37C87CD2621}" name="Table1914" displayName="Table1914" ref="A30:E39" totalsRowShown="0">
+  <autoFilter ref="A30:E39" xr:uid="{6F3A46B0-A8F4-4B8A-A739-FB4E79543F75}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{DC9B0796-EDC7-4D1E-90C9-6FA3EB6987C2}" name="Procedure:"/>
+    <tableColumn id="2" xr3:uid="{E74FF914-BD2F-479E-82B6-6B94F4D21638}" name="Pass/Fail"/>
+    <tableColumn id="3" xr3:uid="{7140F52C-D1D0-4E19-A973-649CFDC8F26E}" name="Why?"/>
+    <tableColumn id="4" xr3:uid="{E66231D3-01AF-4664-BFFC-1A6E21DA714D}" name="Date"/>
+    <tableColumn id="5" xr3:uid="{AF2937D9-D5CE-4778-AF3C-737B6865972E}" name="Tester Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{805090D3-07D4-4980-896F-B6D58BE653A0}" name="Table15" displayName="Table15" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10" xr:uid="{42B6FD23-E0EB-4548-AFE5-0648EFE0187D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{51114D54-A921-419A-95CE-54954D1BF7B1}" name="Procedure:"/>
+    <tableColumn id="2" xr3:uid="{3568DDFE-5E5B-4882-AF0B-B4BA168E9239}" name="Pass/Fail"/>
+    <tableColumn id="3" xr3:uid="{83595EAD-1F3C-4FA8-A041-880B57B604FC}" name="Why?"/>
+    <tableColumn id="4" xr3:uid="{94A470E3-D07E-4076-A91F-AF20E49CCF55}" name="Date" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{4CB4E746-72C5-4B3D-8753-A4D0A01E3F53}" name="Tester Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2F923428-9E78-4861-9942-74E842603022}" name="Table1910" displayName="Table1910" ref="A15:E24" totalsRowShown="0">
+  <autoFilter ref="A15:E24" xr:uid="{16376FBF-4A86-426C-A421-4A23376F697F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B6FF0498-6DDA-4981-8745-66B298BF8303}" name="Procedure:"/>
+    <tableColumn id="2" xr3:uid="{AAF00B6E-FEB8-4819-B116-FD6C750D79A4}" name="Pass/Fail"/>
+    <tableColumn id="3" xr3:uid="{E04BC330-CABF-470C-8B7A-69417D038A43}" name="Why?"/>
+    <tableColumn id="4" xr3:uid="{ACE341A4-4EC1-476D-9482-EFB6A5336E62}" name="Date"/>
+    <tableColumn id="5" xr3:uid="{3599F84B-9190-43AF-A26A-66DFD1E34B13}" name="Tester Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DCCAC329-3586-428B-B2A5-E0338769FA46}" name="Table156" displayName="Table156" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10" xr:uid="{42B6FD23-E0EB-4548-AFE5-0648EFE0187D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B641F7E9-CA9B-441E-9486-1CC8DF830838}" name="Procedure:"/>
+    <tableColumn id="2" xr3:uid="{BDE5705B-5170-49A2-B418-2470EAB74E78}" name="Pass/Fail"/>
+    <tableColumn id="3" xr3:uid="{820F483A-5AE3-4BFB-B44B-3C9F2E1143CC}" name="Why?"/>
+    <tableColumn id="4" xr3:uid="{111A3DA9-9A7C-441F-8AC5-F34EEBDA7D53}" name="Date" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{D65760F0-399F-4FCD-B400-545CB5F4FECB}" name="Tester Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F9883FD5-22A8-4053-B207-CD71D3AB65AE}" name="Table191011" displayName="Table191011" ref="A15:E24" totalsRowShown="0">
+  <autoFilter ref="A15:E24" xr:uid="{2270D137-AF4D-4443-B691-C5D574273FC8}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{320C9E4B-5678-4226-9B22-38B012497FAE}" name="Procedure:"/>
+    <tableColumn id="2" xr3:uid="{52776A72-041F-4B15-A0FA-FBCC90BF1595}" name="Pass/Fail"/>
+    <tableColumn id="3" xr3:uid="{293247A5-F417-4790-A1BE-2D3848ACF40B}" name="Why?"/>
+    <tableColumn id="4" xr3:uid="{271DA944-5D97-4416-90BE-47A7AF788F72}" name="Date"/>
+    <tableColumn id="5" xr3:uid="{DB7D6174-630F-466E-AEF5-D48D89AC05A8}" name="Tester Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BC0FB142-7181-49A0-A45A-4B981FCC4574}" name="Table18" displayName="Table18" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10" xr:uid="{42B6FD23-E0EB-4548-AFE5-0648EFE0187D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7945312E-C54B-43F7-9A72-5BCE7A349E3D}" name="Procedure:"/>
+    <tableColumn id="2" xr3:uid="{FD1FD5D3-72DE-46B6-8F12-A8E780C1FE64}" name="Pass/Fail"/>
+    <tableColumn id="3" xr3:uid="{63CB0C2D-037F-4455-BAF7-737CF1CF1A16}" name="Why?"/>
+    <tableColumn id="4" xr3:uid="{24153155-4E79-432B-ADF0-1F8F6CDB3C0E}" name="Date" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{5DD5960A-3DB4-4CFC-A3D4-DD64949A863E}" name="Tester Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FE73DACB-D38A-4EE7-9137-1EC1EF5A6F53}" name="Table19101112" displayName="Table19101112" ref="A16:E25" totalsRowShown="0">
+  <autoFilter ref="A16:E25" xr:uid="{8C905091-AD5D-45DC-93AC-2D6789E3A5C2}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{89696A3D-864D-47F9-9380-348B909282C8}" name="Procedure:"/>
+    <tableColumn id="2" xr3:uid="{0A54EC93-D7E6-4EE6-B6B4-B563C9B8BEE7}" name="Pass/Fail"/>
+    <tableColumn id="3" xr3:uid="{70FD87A1-3FD4-4A72-BE8A-E1CCA4BBF03A}" name="Why?"/>
+    <tableColumn id="4" xr3:uid="{0EB47241-2F68-4861-8C50-A9D78DCA81A7}" name="Date"/>
+    <tableColumn id="5" xr3:uid="{186BE464-A633-45FB-90C6-32C3D83C9D6A}" name="Tester Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -575,7 +836,7 @@
   <dimension ref="G2:H4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -606,16 +867,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53727665-B359-43C4-A141-5DC06B82F1F0}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="117.3125" customWidth="1"/>
-    <col min="2" max="4" width="9.7890625" customWidth="1"/>
+    <col min="2" max="2" width="11.9453125" customWidth="1"/>
+    <col min="3" max="4" width="9.7890625" customWidth="1"/>
     <col min="5" max="5" width="12.20703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -640,39 +902,111 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>12</v>
       </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>13</v>
       </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>14</v>
       </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>22</v>
       </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -680,21 +1014,1536 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="9">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="9">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="9">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="9">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="9">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="9">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="9">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="9">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="9">
+        <v>43069</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0A99C4-FF52-470C-8684-718F9756461E}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="117.3125" customWidth="1"/>
+    <col min="2" max="2" width="11.9453125" customWidth="1"/>
+    <col min="3" max="4" width="9.7890625" customWidth="1"/>
+    <col min="5" max="5" width="17.05078125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3D2655-C8C8-4310-BCF6-6BA1AED34287}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="117.3125" customWidth="1"/>
+    <col min="2" max="2" width="11.9453125" customWidth="1"/>
+    <col min="3" max="4" width="9.7890625" customWidth="1"/>
+    <col min="5" max="5" width="12.20703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F037D2-182A-4084-8E12-B5FD03D46EC2}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="117.3125" customWidth="1"/>
+    <col min="2" max="2" width="11.9453125" customWidth="1"/>
+    <col min="3" max="4" width="9.7890625" customWidth="1"/>
+    <col min="5" max="5" width="18.47265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300D5710-C34A-4549-89BA-B5AC9FB28834}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="117.3125" customWidth="1"/>
+    <col min="2" max="2" width="11.9453125" customWidth="1"/>
+    <col min="3" max="4" width="9.7890625" customWidth="1"/>
+    <col min="5" max="5" width="18.578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFF0614-D79D-43DA-9D46-295C1C41FDC1}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A3:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -703,17 +2552,12 @@
     <col min="2" max="2" width="23.68359375" customWidth="1"/>
     <col min="3" max="3" width="17.15625" customWidth="1"/>
     <col min="4" max="4" width="20.26171875" customWidth="1"/>
-    <col min="5" max="5" width="13.9453125" customWidth="1"/>
+    <col min="5" max="5" width="20.7890625" customWidth="1"/>
     <col min="6" max="6" width="35.26171875" customWidth="1"/>
     <col min="7" max="9" width="9.7890625" customWidth="1"/>
     <col min="10" max="10" width="10.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>16</v>
@@ -738,25 +2582,77 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" s="9">
+        <v>43069</v>
+      </c>
+      <c r="C6" s="9">
+        <v>43069</v>
+      </c>
+      <c r="E6" s="9">
+        <v>43069</v>
+      </c>
+      <c r="F6" s="9">
+        <v>43069</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D12" t="s">
+      <c r="B8" t="s">
         <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -764,19 +2660,19 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -791,45 +2687,78 @@
       <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="10">
+        <v>43069</v>
+      </c>
+      <c r="C17" s="10">
+        <v>43069</v>
+      </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="10">
+        <v>43069</v>
+      </c>
+      <c r="F17" s="11">
+        <v>43069</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" t="s">
-        <v>28</v>
+      <c r="B19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -837,39 +2766,51 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>3</v>
       </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>6</v>
       </c>
+      <c r="B28" s="9">
+        <v>43069</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>4</v>
       </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
